--- a/Caribe/Doc/스킬메모.xlsx
+++ b/Caribe/Doc/스킬메모.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -11,18 +11,422 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="122211"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>만든 이</author>
+  </authors>
+  <commentList>
+    <comment ref="B26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">유연성을 위해 시전시점과 발동시점은 따로 구분해 구현하지 않는다
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C26" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t xml:space="preserve">유연성을 위해 시전대상과 발동대상은 따로 구분해 구현하지 않는다
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="71">
+  <si>
+    <t>때렸을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞았을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전투시작 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>죽었을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌표에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피아식별</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적군</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모두</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가그룹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟 단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟의 파티전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타겟의 전체부대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전범위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"누구에게"단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"누구에게" 반경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"누구" 주변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전멸한 부대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용기간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 1회발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지속형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도트형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전효과가 사라지는 시점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과적용 후 즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n초동안</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용카운터 완료시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맞으면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>움직이면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사망시 버프 사라짐/안사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>or시점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(선택된)타겟이 죽었을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HP가 n% 이상(이하)일때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과발동시점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제사용(시전)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬유저 최초 생성시(패시브)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전즉시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타 특정조건이 됐을때</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬버튼 누를때(액티브)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구에게{시전대상}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기준타겟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{사용자}에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{사용자}가 선택한 타겟에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{기준}에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{기준}이 선택한 타겟에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{기준}의 좌표에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{기준}으로부터 가장HP가 적은타겟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{시전}에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{시전}의 타겟에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{시전}을 공격하는자에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{시전}의 파티에게</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{발동}단일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{발동}주변</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{발동}반경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{발동}일직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{발동}부채꼴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누구에게(발동대상)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적용시간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동스킬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬 식별자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전확률</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동조건</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발동효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(시전)효과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -46,19 +450,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,37 +760,350 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A11:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="1:15" s="4" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I13" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C16" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C18" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="2:15" s="5" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>